--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmazzag/Documents/Web Dev Course/Project 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41966F-765E-BD4E-A001-0FCCB74AEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -51,13 +52,70 @@
   </si>
   <si>
     <t>(SEO or Accessibility?)</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Page name</t>
+  </si>
+  <si>
+    <t>Page 2 doesn't explain what the page is about</t>
+  </si>
+  <si>
+    <t>Change the page name so it appropriately describes the page</t>
+  </si>
+  <si>
+    <t>Change page name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page name </t>
+  </si>
+  <si>
+    <t>Page had no name</t>
+  </si>
+  <si>
+    <t>Changed the name to the company title</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Header as an image</t>
+  </si>
+  <si>
+    <t>Any bits of text should be text not images</t>
+  </si>
+  <si>
+    <t>Screen readers might not be able to read text on images therefore if an image is solely text best practice would be to change to text</t>
+  </si>
+  <si>
+    <t>Put the image text as a heading rather than an image</t>
+  </si>
+  <si>
+    <t>Colours were too similar / low contrast ratio</t>
+  </si>
+  <si>
+    <t>Increase contrast ratio</t>
+  </si>
+  <si>
+    <t>Change colour to a colour with a higher contrast ratio</t>
+  </si>
+  <si>
+    <t>.tc-white / various titles</t>
+  </si>
+  <si>
+    <t>Bottom links colour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +148,18 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -127,18 +197,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -149,6 +230,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,105 +435,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="1" max="2" width="21.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="7" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="4"/>
+    <row r="3" spans="1:26" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="4"/>
+    <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="4"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmazzag/Documents/Web Dev Course/Project 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41966F-765E-BD4E-A001-0FCCB74AEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E813177-1C14-6E4F-9C1A-65CC1525CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4860" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>Bottom links colour</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Language changed from default</t>
+  </si>
+  <si>
+    <t>Put the language the page is in</t>
+  </si>
+  <si>
+    <t>Change the page language from default to English</t>
+  </si>
+  <si>
+    <t>Hidden keywords</t>
+  </si>
+  <si>
+    <t>Keywords should be within text on the page</t>
+  </si>
+  <si>
+    <t>The keywords on the page were hidden meaning that they are placed in an attempt to increase SEO however, this may cause the site to be removed from googles index</t>
+  </si>
+  <si>
+    <t>Removed hidden keywords</t>
   </si>
 </sst>
 </file>
@@ -439,13 +463,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="21.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="7" customWidth="1"/>
@@ -583,11 +607,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="6"/>
+    <row r="8" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="6"/>
+    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="6"/>
